--- a/AT-results.xlsx
+++ b/AT-results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcarl\Documents\Graduate_Research\genFF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcarlozo\Documents\Graduate_Research\Atom_Typing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22B0970E-299D-4125-A60E-225041324DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{775AEDC6-7E12-4DD6-BB22-63A6A561CF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1E973F20-D9BA-4A0D-895B-8F28BB80EC44}"/>
+    <workbookView xWindow="28702" yWindow="1927" windowWidth="28995" windowHeight="15675" xr2:uid="{1E973F20-D9BA-4A0D-895B-8F28BB80EC44}"/>
   </bookViews>
   <sheets>
     <sheet name="AT4" sheetId="4" r:id="rId1"/>
@@ -184,17 +184,17 @@
     <t>*Parameter is inestimable, the values of GAFF are used for HFC-23 for performing molecular simulations</t>
   </si>
   <si>
-    <t>S metric</t>
+    <t>K</t>
   </si>
   <si>
-    <t>K</t>
+    <t>q_j metric</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,18 +634,18 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="14" width="8.7265625" style="5"/>
-    <col min="15" max="15" width="9.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="14" width="8.75" style="5"/>
+    <col min="15" max="15" width="9.625" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.7265625" style="5"/>
+    <col min="17" max="16384" width="8.75" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" ht="28.9" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -690,7 +690,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" ht="14.65" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -736,7 +736,7 @@
         <v>3.3611361502616202</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" ht="14.65" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -781,7 +781,7 @@
         <v>3.5691518786028502</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" ht="14.65" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -826,7 +826,7 @@
         <v>2.9381548725384099</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" ht="14.65" thickBot="1">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -871,7 +871,7 @@
         <v>2.2840571187663898</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" ht="14.65" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -916,7 +916,7 @@
         <v>53.809069044205998</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" ht="14.65" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -961,7 +961,7 @@
         <v>41.75208947702</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" ht="14.65" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>26.2390444636195</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" ht="14.65" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" ht="14.65" thickBot="1">
       <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
@@ -1063,19 +1063,19 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" ht="14.65" thickBot="1">
       <c r="J11" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L11" s="6"/>
       <c r="O11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="6" t="str">
         <f>A2</f>
         <v>σ_{C_1}</v>
@@ -1125,7 +1125,7 @@
         <v>σ_{C_1}</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17">
       <c r="A13" s="6" t="str">
         <f t="shared" ref="A13:A18" si="2">A3</f>
         <v>σ_{C_2}</v>
@@ -1175,7 +1175,7 @@
         <v>σ_{C_2}</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17">
       <c r="A14" s="6" t="str">
         <f t="shared" si="2"/>
         <v>σ_{F}</v>
@@ -1225,7 +1225,7 @@
         <v>σ_{F}</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17">
       <c r="A15" s="6" t="str">
         <f t="shared" si="2"/>
         <v>σ_{H}</v>
@@ -1275,7 +1275,7 @@
         <v>σ_{H}</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17">
       <c r="A16" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ε_{C_1}</v>
@@ -1325,7 +1325,7 @@
         <v>ε_{C_1}</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12">
       <c r="A17" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ε_{C_2}</v>
@@ -1375,7 +1375,7 @@
         <v>ε_{C_2}</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12">
       <c r="A18" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ε_{F}</v>
@@ -1425,7 +1425,7 @@
         <v>ε_{F}</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12">
       <c r="A19" s="6" t="str">
         <f>A9</f>
         <v>ε_{H}</v>
@@ -1485,17 +1485,17 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" ht="28.9" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" ht="14.65" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>3.6114584430933698</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" ht="14.65" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>3.3207874864960698</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" ht="14.65" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>3.48446423868748</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" ht="14.65" thickBot="1">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>2.60006410111481</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" ht="14.65" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>2.2152392106724799</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" ht="14.65" thickBot="1">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>2.9416514671141298</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" ht="14.65" thickBot="1">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>40.550580980096903</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" ht="14.65" thickBot="1">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>55.495909509811298</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" ht="14.65" thickBot="1">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>45.212640691583204</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" ht="14.65" thickBot="1">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>11.5665708649981</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" ht="14.65" thickBot="1">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>11.739475826371001</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" ht="14.65" thickBot="1">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>26.568642581234801</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" ht="14.65" thickBot="1">
       <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" ht="14.65" thickBot="1">
       <c r="A15" s="9"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -2293,7 +2293,7 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
@@ -2303,10 +2303,10 @@
         <v>37</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="14.55">
       <c r="A16" s="10" t="str">
         <f>A2</f>
         <v>σ_{C_m}</v>
@@ -2374,7 +2374,7 @@
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="14.55">
       <c r="A17" s="10" t="str">
         <f t="shared" ref="A17:A27" si="3">A3</f>
         <v>σ_{C_1}</v>
@@ -2440,7 +2440,7 @@
         <v>σ_{C_1}</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="14.55">
       <c r="A18" s="10" t="str">
         <f t="shared" si="3"/>
         <v>σ_{C_2}</v>
@@ -2506,7 +2506,7 @@
         <v>σ_{C_2}</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="14.55">
       <c r="A19" s="10" t="str">
         <f t="shared" si="3"/>
         <v>σ_{H_c}</v>
@@ -2572,7 +2572,7 @@
         <v>σ_{H_c}</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="14.55">
       <c r="A20" s="10" t="str">
         <f t="shared" si="3"/>
         <v>σ_{H}</v>
@@ -2638,7 +2638,7 @@
         <v>σ_{H}</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="14.55">
       <c r="A21" s="10" t="str">
         <f t="shared" si="3"/>
         <v>σ_{F}</v>
@@ -2704,7 +2704,7 @@
         <v>σ_{F}</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" ht="14.55">
       <c r="A22" s="10" t="str">
         <f t="shared" si="3"/>
         <v>ε_{C_m}</v>
@@ -2770,7 +2770,7 @@
         <v>ε_{C_m}</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="14.55">
       <c r="A23" s="10" t="str">
         <f t="shared" si="3"/>
         <v>ε_{C_1}</v>
@@ -2836,7 +2836,7 @@
         <v>ε_{C_1}</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="14.55">
       <c r="A24" s="10" t="str">
         <f t="shared" si="3"/>
         <v>ε_{C_2}</v>
@@ -2902,7 +2902,7 @@
         <v>ε_{C_2}</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" ht="14.55">
       <c r="A25" s="10" t="str">
         <f t="shared" si="3"/>
         <v>ε_{H_c}</v>
@@ -2968,7 +2968,7 @@
         <v>ε_{H_c}</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" ht="14.55">
       <c r="A26" s="10" t="str">
         <f t="shared" si="3"/>
         <v>ε_{H}</v>
@@ -3034,7 +3034,7 @@
         <v>ε_{H}</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" ht="14.55">
       <c r="A27" s="10" t="str">
         <f t="shared" si="3"/>
         <v>ε_{F}</v>
@@ -3100,7 +3100,7 @@
         <v>ε_{F}</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" ht="14.55">
       <c r="A28" s="10"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -3120,7 +3120,7 @@
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" ht="14.55">
       <c r="A29" s="10"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -3140,7 +3140,7 @@
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" ht="14.55">
       <c r="N30" s="11"/>
     </row>
   </sheetData>
@@ -3154,18 +3154,18 @@
   <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="18" width="8.7265625" style="5"/>
-    <col min="19" max="19" width="9.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="18" width="8.75" style="5"/>
+    <col min="19" max="19" width="9.625" style="5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.7265625" style="5"/>
+    <col min="21" max="16384" width="8.75" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" ht="28.9" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" ht="14.65" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>3.33858766426202</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" ht="14.65" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>2.5858818610760101</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" ht="14.65" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>2.3426722732528802</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" ht="14.65" thickBot="1">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>1.88751636740776</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" ht="14.65" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>2.3926066182013899</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" ht="14.65" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>2.9406319925722499</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" ht="14.65" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>54.162961502950999</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" ht="14.65" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>10.793736750092799</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" ht="14.65" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>11.3933728681706</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" ht="14.65" thickBot="1">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" ht="14.65" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>8.9036189421225096</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" ht="14.65" thickBot="1">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>26.501655315089799</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" ht="14.65" thickBot="1">
       <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
@@ -3918,19 +3918,19 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" ht="14.65" thickBot="1">
       <c r="A15" s="9"/>
       <c r="N15" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="10" t="str">
         <f>A2</f>
         <v>σ_{C}</v>
@@ -3999,7 +3999,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16">
       <c r="A17" s="10" t="str">
         <f t="shared" ref="A17:A27" si="2">A3</f>
         <v>σ_{H_c}</v>
@@ -4065,7 +4065,7 @@
         <v>σ_{H_c}</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16">
       <c r="A18" s="10" t="str">
         <f t="shared" si="2"/>
         <v>σ_{H_1}</v>
@@ -4131,7 +4131,7 @@
         <v>σ_{H_1}</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16">
       <c r="A19" s="10" t="str">
         <f t="shared" si="2"/>
         <v>σ_{H_2}</v>
@@ -4197,7 +4197,7 @@
         <v>σ_{H_2}</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16">
       <c r="A20" s="10" t="str">
         <f t="shared" si="2"/>
         <v>σ_{H_3}</v>
@@ -4263,7 +4263,7 @@
         <v>σ_{H_3}</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16">
       <c r="A21" s="10" t="str">
         <f t="shared" si="2"/>
         <v>σ_{F}</v>
@@ -4329,7 +4329,7 @@
         <v>σ_{F}</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16">
       <c r="A22" s="10" t="str">
         <f t="shared" si="2"/>
         <v>ε_{C}</v>
@@ -4395,7 +4395,7 @@
         <v>ε_{C}</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16">
       <c r="A23" s="10" t="str">
         <f t="shared" si="2"/>
         <v>ε_{H_c}</v>
@@ -4461,7 +4461,7 @@
         <v>ε_{H_c}</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16">
       <c r="A24" s="10" t="str">
         <f t="shared" si="2"/>
         <v>ε_{H_1}</v>
@@ -4527,7 +4527,7 @@
         <v>ε_{H_1}</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16">
       <c r="A25" s="10" t="str">
         <f t="shared" si="2"/>
         <v>ε_{H_2}</v>
@@ -4593,7 +4593,7 @@
         <v>ε_{H_2}</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16">
       <c r="A26" s="10" t="str">
         <f t="shared" si="2"/>
         <v>ε_{H_3}</v>
@@ -4659,7 +4659,7 @@
         <v>ε_{H_3}</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16">
       <c r="A27" s="10" t="str">
         <f t="shared" si="2"/>
         <v>ε_{F}</v>
@@ -4725,7 +4725,7 @@
         <v>ε_{F}</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16">
       <c r="A28" s="9"/>
     </row>
   </sheetData>
@@ -4738,20 +4738,20 @@
   <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="17" width="8.7265625" style="5"/>
-    <col min="18" max="18" width="8.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="8.7265625" style="5"/>
-    <col min="23" max="23" width="9.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="17" width="8.75" style="5"/>
+    <col min="18" max="18" width="8.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="8.75" style="5"/>
+    <col min="23" max="23" width="9.625" style="5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.7265625" style="5"/>
+    <col min="25" max="16384" width="8.75" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" ht="28.9" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" ht="14.65" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>3.7630074901597501</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" ht="14.65" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>3.4157899452074498</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" ht="14.65" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>3.5564033582594399</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" ht="14.65" thickBot="1">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>2.43222740939893</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" ht="14.65" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>2.5478419955951099</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" ht="14.65" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>26</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>2.6835482210944401</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" ht="14.65" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>3.0470218727565901</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" ht="14.65" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>2.9322420662314701</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" ht="14.65" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>43.443378180970001</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" ht="14.65" thickBot="1">
       <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>46.738395290884299</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" ht="14.65" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>45.290894490667398</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" ht="14.65" thickBot="1">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>10.662041368718301</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" ht="14.65" thickBot="1">
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>48.545015769128597</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" ht="14.65" thickBot="1">
       <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>38.380977072843699</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" ht="14.65" thickBot="1">
       <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>20.963247408024898</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" ht="14.65" thickBot="1">
       <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>26.860539415402101</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" ht="14.65" thickBot="1">
       <c r="A18" s="8" t="s">
         <v>13</v>
       </c>
@@ -5936,22 +5936,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" ht="14.65" thickBot="1">
       <c r="W19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" s="10" t="str">
         <f>A2</f>
         <v>σ_{C_m}</v>
@@ -6033,7 +6033,7 @@
         <v>σ_{C_m}</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24">
       <c r="A22" s="10" t="str">
         <f t="shared" ref="A22:A36" si="2">A3</f>
         <v>σ_{C_1}</v>
@@ -6115,7 +6115,7 @@
         <v>σ_{C_1}</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24">
       <c r="A23" s="10" t="str">
         <f t="shared" si="2"/>
         <v>σ_{C_2}</v>
@@ -6197,7 +6197,7 @@
         <v>σ_{C_2}</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24">
       <c r="A24" s="10" t="str">
         <f t="shared" si="2"/>
         <v>σ_{H}</v>
@@ -6279,7 +6279,7 @@
         <v>σ_{H}</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24">
       <c r="A25" s="10" t="str">
         <f t="shared" si="2"/>
         <v>σ_{F_1}</v>
@@ -6361,7 +6361,7 @@
         <v>σ_{F_1}</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24">
       <c r="A26" s="10" t="str">
         <f t="shared" si="2"/>
         <v>σ_{F_2}</v>
@@ -6443,7 +6443,7 @@
         <v>σ_{F_2}</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24">
       <c r="A27" s="10" t="str">
         <f t="shared" si="2"/>
         <v>σ_{F_3}</v>
@@ -6525,7 +6525,7 @@
         <v>σ_{F_3}</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24">
       <c r="A28" s="10" t="str">
         <f t="shared" si="2"/>
         <v>σ_{F_4}</v>
@@ -6607,7 +6607,7 @@
         <v>σ_{F_4}</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24">
       <c r="A29" s="10" t="str">
         <f t="shared" si="2"/>
         <v>ε_{C_m}</v>
@@ -6689,7 +6689,7 @@
         <v>ε_{C_m}</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24">
       <c r="A30" s="10" t="str">
         <f t="shared" si="2"/>
         <v>ε_{C_1}</v>
@@ -6771,7 +6771,7 @@
         <v>ε_{C_1}</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24">
       <c r="A31" s="10" t="str">
         <f t="shared" si="2"/>
         <v>ε_{C_2}</v>
@@ -6853,7 +6853,7 @@
         <v>ε_{C_2}</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24">
       <c r="A32" s="10" t="str">
         <f t="shared" si="2"/>
         <v>ε_{H}</v>
@@ -6935,7 +6935,7 @@
         <v>ε_{H}</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20">
       <c r="A33" s="10" t="str">
         <f t="shared" si="2"/>
         <v>ε_{F_1}</v>
@@ -7017,7 +7017,7 @@
         <v>ε_{F_1}</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20">
       <c r="A34" s="10" t="str">
         <f t="shared" si="2"/>
         <v>ε_{F_2}</v>
@@ -7099,7 +7099,7 @@
         <v>ε_{F_2}</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20">
       <c r="A35" s="10" t="str">
         <f t="shared" si="2"/>
         <v>ε_{F_3}</v>
@@ -7181,7 +7181,7 @@
         <v>ε_{F_3}</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20">
       <c r="A36" s="10" t="str">
         <f t="shared" si="2"/>
         <v>ε_{F_4}</v>
@@ -7263,7 +7263,7 @@
         <v>ε_{F_4}</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20">
       <c r="A37" s="10"/>
       <c r="B37" s="9"/>
     </row>
